--- a/resources/Data.xlsx
+++ b/resources/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ByDuo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\project\Mobile_Manager_LHE\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B6766-ED2C-4AE4-8F8A-DEBD4998BD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C7D8DA-8354-4E38-B034-2C3FDD231480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{0EE34F9B-F249-43C4-BC04-FD3DEE7122EB}"/>
+    <workbookView xWindow="1290" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{0EE34F9B-F249-43C4-BC04-FD3DEE7122EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidAccount" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Bạn cần hoàn thiện trường thông tin này</t>
   </si>
@@ -113,12 +114,42 @@
   <si>
     <t>abcdfg</t>
   </si>
+  <si>
+    <t>${note}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi để trống Tên đăng nhập </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi để trống Mật khẩu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi Tên đăng nhập không tồn tại trong DB </t>
+  </si>
+  <si>
+    <t>adminqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin@11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi nhập Mật khẩu chứa space đầu cuối </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin@12</t>
+  </si>
+  <si>
+    <t>ad minqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi nhập Tên đăng nhập chứa space </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,62 +526,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE06F9B5-B2B8-4E34-A21E-C3D2334F9DEB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FCE5EE8F-53AA-4313-B108-81FA02627C9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDF1EBD-83DD-4E35-8B85-4988B00BFE94}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{FCE5EE8F-53AA-4313-B108-81FA02627C9E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>